--- a/static/excel_template/executive.xlsx
+++ b/static/excel_template/executive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernes\OneDrive\Desktop\GNAAS PROJECT\static\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2182B71-C62D-4067-921E-95344AE1E9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE0471D-D465-4203-8BF6-ECDF558C6D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5FC3B246-0963-41A6-9B68-871F764CFECF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>FULL NAME</t>
   </si>
@@ -68,40 +68,10 @@
     <t>LOCAL CHURCH LOCATION</t>
   </si>
   <si>
-    <t>LOCAL CHURCH ELDER</t>
-  </si>
-  <si>
-    <t>ELDER CONTACT</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>UEW</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
-    <t>0270101063</t>
-  </si>
-  <si>
-    <t>papayaw@gmail.com</t>
-  </si>
-  <si>
-    <t>Political Science</t>
-  </si>
-  <si>
-    <t>SUNYANI</t>
-  </si>
-  <si>
-    <t>SUNYANI SDA</t>
-  </si>
-  <si>
-    <t>Thomas Partey</t>
-  </si>
-  <si>
-    <t>Kofi SarponTudji Danquah</t>
+    <t>DISTRICT</t>
+  </si>
+  <si>
+    <t>CONFERENCE</t>
   </si>
 </sst>
 </file>
@@ -600,7 +570,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -658,42 +628,12 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>2022</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="9">
-        <v>552302983</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
@@ -713,10 +653,7 @@
       <formula1>9</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8FA452C3-A1B7-42A3-8917-BA8A1C850EF5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>